--- a/data/outputs/OR/31.xlsx
+++ b/data/outputs/OR/31.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ36"/>
+  <dimension ref="A1:BR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -905,6 +910,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1106,6 +1112,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1311,6 +1318,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1512,6 +1520,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1713,6 +1722,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1910,6 +1920,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1996,7 +2007,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Zwetsloot, Inez/0000-0002-6144-4188; </t>
+          <t>Zwetsloot, Inez/0000-0002-6144-4188;</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr"/>
@@ -2111,6 +2122,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2280,6 +2292,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2477,6 +2490,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2670,6 +2684,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2871,6 +2886,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3076,6 +3092,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3269,6 +3286,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3462,6 +3480,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3655,6 +3674,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3832,6 +3852,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4009,6 +4030,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4186,6 +4208,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4363,6 +4386,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4544,6 +4568,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4729,6 +4754,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4906,6 +4932,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5083,6 +5110,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5288,6 +5316,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5489,6 +5518,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5690,6 +5720,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5883,6 +5914,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6092,6 +6124,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6269,6 +6302,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6470,6 +6504,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6671,6 +6706,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6872,6 +6908,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7069,6 +7106,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7266,6 +7304,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7467,6 +7506,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
